--- a/HW/B10808006_林亭毅.xlsx
+++ b/HW/B10808006_林亭毅.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-linwilliam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD5FE54-29E6-46C6-8B44-DA8B61C13980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC7634A-AEA7-4776-93C1-183D112C8423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6896,8 +6909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="N157" sqref="N157"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10021,6 +10034,9 @@
       <c r="B177">
         <v>175</v>
       </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
       <c r="F177" t="s">
         <v>145</v>
       </c>
@@ -10035,6 +10051,9 @@
       <c r="B178">
         <v>176</v>
       </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
       <c r="F178" t="s">
         <v>146</v>
       </c>
@@ -10049,6 +10068,9 @@
       <c r="B179">
         <v>177</v>
       </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
       <c r="F179" t="s">
         <v>147</v>
       </c>
@@ -10063,6 +10085,9 @@
       <c r="B180">
         <v>178</v>
       </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
       <c r="F180" t="s">
         <v>97</v>
       </c>
@@ -10077,6 +10102,9 @@
       <c r="B181">
         <v>179</v>
       </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
       <c r="F181" t="s">
         <v>148</v>
       </c>
@@ -10094,6 +10122,9 @@
       <c r="B182">
         <v>180</v>
       </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
       <c r="F182" t="s">
         <v>9</v>
       </c>
@@ -10108,6 +10139,9 @@
       <c r="B183">
         <v>181</v>
       </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
       <c r="F183" t="s">
         <v>149</v>
       </c>
@@ -10125,6 +10159,9 @@
       <c r="B184">
         <v>182</v>
       </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
       <c r="F184" t="s">
         <v>150</v>
       </c>
@@ -10139,6 +10176,9 @@
       <c r="B185">
         <v>183</v>
       </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
       <c r="F185" t="s">
         <v>151</v>
       </c>
@@ -10153,6 +10193,9 @@
       <c r="B186">
         <v>184</v>
       </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
       <c r="F186" t="s">
         <v>47</v>
       </c>
@@ -10167,6 +10210,9 @@
       <c r="B187">
         <v>185</v>
       </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
       <c r="F187" t="s">
         <v>152</v>
       </c>
@@ -10184,6 +10230,9 @@
       <c r="B188">
         <v>186</v>
       </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
       <c r="F188" t="s">
         <v>153</v>
       </c>
@@ -10201,6 +10250,9 @@
       <c r="B189">
         <v>187</v>
       </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
       <c r="F189" t="s">
         <v>110</v>
       </c>
@@ -10218,6 +10270,9 @@
       <c r="B190">
         <v>188</v>
       </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
       <c r="F190" t="s">
         <v>154</v>
       </c>
@@ -10232,6 +10287,9 @@
       <c r="B191">
         <v>189</v>
       </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
       <c r="F191" t="s">
         <v>155</v>
       </c>
@@ -10246,6 +10304,9 @@
       <c r="B192">
         <v>190</v>
       </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
       <c r="F192" t="s">
         <v>156</v>
       </c>
@@ -10263,6 +10324,9 @@
       <c r="B193">
         <v>191</v>
       </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
       <c r="F193" t="s">
         <v>157</v>
       </c>
@@ -10277,6 +10341,9 @@
       <c r="B194">
         <v>192</v>
       </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
       <c r="F194" t="s">
         <v>158</v>
       </c>
@@ -10291,6 +10358,9 @@
       <c r="B195">
         <v>193</v>
       </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
       <c r="F195" t="s">
         <v>137</v>
       </c>
@@ -10305,6 +10375,9 @@
       <c r="B196">
         <v>194</v>
       </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
       <c r="F196" t="s">
         <v>159</v>
       </c>
@@ -10322,6 +10395,9 @@
       <c r="B197">
         <v>195</v>
       </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
       <c r="F197" t="s">
         <v>160</v>
       </c>
@@ -10339,6 +10415,9 @@
       <c r="B198">
         <v>196</v>
       </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
       <c r="F198" t="s">
         <v>161</v>
       </c>
@@ -10356,6 +10435,9 @@
       <c r="B199">
         <v>197</v>
       </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
       <c r="F199" t="s">
         <v>162</v>
       </c>
@@ -10370,6 +10452,12 @@
       <c r="B200">
         <v>198</v>
       </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
       <c r="F200" t="s">
         <v>7</v>
       </c>
@@ -10384,6 +10472,9 @@
       <c r="B201">
         <v>199</v>
       </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
       <c r="F201" t="s">
         <v>163</v>
       </c>
@@ -10398,6 +10489,9 @@
       <c r="B202">
         <v>200</v>
       </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
       <c r="F202" t="s">
         <v>42</v>
       </c>
@@ -10412,6 +10506,9 @@
       <c r="B203">
         <v>201</v>
       </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
       <c r="F203" t="s">
         <v>47</v>
       </c>
@@ -10426,6 +10523,9 @@
       <c r="B204">
         <v>202</v>
       </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
       <c r="F204" t="s">
         <v>164</v>
       </c>
@@ -10440,6 +10540,9 @@
       <c r="B205">
         <v>203</v>
       </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
       <c r="F205" t="s">
         <v>7</v>
       </c>
@@ -10454,6 +10557,9 @@
       <c r="B206">
         <v>204</v>
       </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
       <c r="F206" t="s">
         <v>165</v>
       </c>
@@ -31473,6 +31579,9 @@
       </c>
       <c r="B1629">
         <v>1627</v>
+      </c>
+      <c r="C1629" t="b">
+        <v>1</v>
       </c>
       <c r="F1629" t="s">
         <v>26</v>

--- a/HW/B10808006_林亭毅.xlsx
+++ b/HW/B10808006_林亭毅.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="2157">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6506,6 +6506,14 @@
   </si>
   <si>
     <t>bosch攪拌機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel 6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6895,8 +6903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="E820" sqref="C703:E820"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="C965" sqref="C965:E1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -21467,6 +21475,9 @@
       <c r="B821">
         <v>819</v>
       </c>
+      <c r="C821" t="b">
+        <v>1</v>
+      </c>
       <c r="F821" t="s">
         <v>55</v>
       </c>
@@ -21481,6 +21492,9 @@
       <c r="B822">
         <v>820</v>
       </c>
+      <c r="E822" t="b">
+        <v>1</v>
+      </c>
       <c r="F822" t="s">
         <v>350</v>
       </c>
@@ -21495,6 +21509,9 @@
       <c r="B823">
         <v>821</v>
       </c>
+      <c r="E823" t="b">
+        <v>1</v>
+      </c>
       <c r="F823" t="s">
         <v>262</v>
       </c>
@@ -21509,6 +21526,9 @@
       <c r="B824">
         <v>822</v>
       </c>
+      <c r="D824" t="b">
+        <v>1</v>
+      </c>
       <c r="F824" t="s">
         <v>201</v>
       </c>
@@ -21523,6 +21543,9 @@
       <c r="B825">
         <v>823</v>
       </c>
+      <c r="D825" t="b">
+        <v>1</v>
+      </c>
       <c r="F825" t="s">
         <v>58</v>
       </c>
@@ -21540,6 +21563,9 @@
       <c r="B826">
         <v>824</v>
       </c>
+      <c r="D826" t="b">
+        <v>1</v>
+      </c>
       <c r="F826" t="s">
         <v>331</v>
       </c>
@@ -21554,6 +21580,9 @@
       <c r="B827">
         <v>825</v>
       </c>
+      <c r="D827" t="b">
+        <v>1</v>
+      </c>
       <c r="F827" t="s">
         <v>201</v>
       </c>
@@ -21568,6 +21597,9 @@
       <c r="B828">
         <v>826</v>
       </c>
+      <c r="C828" t="b">
+        <v>1</v>
+      </c>
       <c r="F828" t="s">
         <v>59</v>
       </c>
@@ -21582,6 +21614,9 @@
       <c r="B829">
         <v>827</v>
       </c>
+      <c r="E829" t="b">
+        <v>1</v>
+      </c>
       <c r="F829" t="s">
         <v>121</v>
       </c>
@@ -21599,6 +21634,9 @@
       <c r="B830">
         <v>828</v>
       </c>
+      <c r="C830" t="b">
+        <v>1</v>
+      </c>
       <c r="F830" t="s">
         <v>319</v>
       </c>
@@ -21613,6 +21651,9 @@
       <c r="B831">
         <v>829</v>
       </c>
+      <c r="E831" t="b">
+        <v>1</v>
+      </c>
       <c r="F831" t="s">
         <v>197</v>
       </c>
@@ -21630,6 +21671,9 @@
       <c r="B832">
         <v>830</v>
       </c>
+      <c r="C832" t="b">
+        <v>1</v>
+      </c>
       <c r="F832" t="s">
         <v>341</v>
       </c>
@@ -21644,6 +21688,9 @@
       <c r="B833">
         <v>831</v>
       </c>
+      <c r="E833" t="b">
+        <v>1</v>
+      </c>
       <c r="F833" t="s">
         <v>254</v>
       </c>
@@ -21658,6 +21705,9 @@
       <c r="B834">
         <v>832</v>
       </c>
+      <c r="C834" t="b">
+        <v>1</v>
+      </c>
       <c r="F834" t="s">
         <v>193</v>
       </c>
@@ -21672,6 +21722,9 @@
       <c r="B835">
         <v>833</v>
       </c>
+      <c r="D835" t="b">
+        <v>1</v>
+      </c>
       <c r="F835" t="s">
         <v>139</v>
       </c>
@@ -21686,6 +21739,9 @@
       <c r="B836">
         <v>834</v>
       </c>
+      <c r="D836" t="b">
+        <v>1</v>
+      </c>
       <c r="F836" t="s">
         <v>221</v>
       </c>
@@ -21700,6 +21756,9 @@
       <c r="B837">
         <v>835</v>
       </c>
+      <c r="C837" t="b">
+        <v>1</v>
+      </c>
       <c r="F837" t="s">
         <v>66</v>
       </c>
@@ -21714,6 +21773,9 @@
       <c r="B838">
         <v>836</v>
       </c>
+      <c r="E838" t="b">
+        <v>1</v>
+      </c>
       <c r="F838" t="s">
         <v>51</v>
       </c>
@@ -21728,6 +21790,9 @@
       <c r="B839">
         <v>837</v>
       </c>
+      <c r="C839" t="b">
+        <v>1</v>
+      </c>
       <c r="F839" t="s">
         <v>179</v>
       </c>
@@ -21742,6 +21807,9 @@
       <c r="B840">
         <v>838</v>
       </c>
+      <c r="D840" t="b">
+        <v>1</v>
+      </c>
       <c r="F840" t="s">
         <v>94</v>
       </c>
@@ -21759,6 +21827,9 @@
       <c r="B841">
         <v>839</v>
       </c>
+      <c r="C841" t="b">
+        <v>1</v>
+      </c>
       <c r="F841" t="s">
         <v>84</v>
       </c>
@@ -21773,6 +21844,9 @@
       <c r="B842">
         <v>840</v>
       </c>
+      <c r="D842" t="b">
+        <v>1</v>
+      </c>
       <c r="F842" t="s">
         <v>351</v>
       </c>
@@ -21787,6 +21861,9 @@
       <c r="B843">
         <v>841</v>
       </c>
+      <c r="E843" t="b">
+        <v>1</v>
+      </c>
       <c r="F843" t="s">
         <v>297</v>
       </c>
@@ -21801,6 +21878,9 @@
       <c r="B844">
         <v>842</v>
       </c>
+      <c r="C844" t="b">
+        <v>1</v>
+      </c>
       <c r="F844" t="s">
         <v>267</v>
       </c>
@@ -21815,6 +21895,9 @@
       <c r="B845">
         <v>843</v>
       </c>
+      <c r="C845" t="b">
+        <v>1</v>
+      </c>
       <c r="F845" t="s">
         <v>55</v>
       </c>
@@ -21829,6 +21912,9 @@
       <c r="B846">
         <v>844</v>
       </c>
+      <c r="C846" t="b">
+        <v>1</v>
+      </c>
       <c r="F846" t="s">
         <v>153</v>
       </c>
@@ -21843,6 +21929,9 @@
       <c r="B847">
         <v>845</v>
       </c>
+      <c r="C847" t="b">
+        <v>1</v>
+      </c>
       <c r="F847" t="s">
         <v>256</v>
       </c>
@@ -21857,6 +21946,9 @@
       <c r="B848">
         <v>846</v>
       </c>
+      <c r="C848" t="b">
+        <v>1</v>
+      </c>
       <c r="F848" t="s">
         <v>239</v>
       </c>
@@ -21871,6 +21963,9 @@
       <c r="B849">
         <v>847</v>
       </c>
+      <c r="E849" t="b">
+        <v>1</v>
+      </c>
       <c r="F849" t="s">
         <v>352</v>
       </c>
@@ -21885,6 +21980,9 @@
       <c r="B850">
         <v>848</v>
       </c>
+      <c r="C850" t="b">
+        <v>1</v>
+      </c>
       <c r="F850" t="s">
         <v>35</v>
       </c>
@@ -21899,6 +21997,9 @@
       <c r="B851">
         <v>849</v>
       </c>
+      <c r="E851" t="b">
+        <v>1</v>
+      </c>
       <c r="F851" t="s">
         <v>281</v>
       </c>
@@ -21913,6 +22014,9 @@
       <c r="B852">
         <v>850</v>
       </c>
+      <c r="E852" t="b">
+        <v>1</v>
+      </c>
       <c r="F852" t="s">
         <v>353</v>
       </c>
@@ -21927,6 +22031,9 @@
       <c r="B853">
         <v>851</v>
       </c>
+      <c r="D853" t="b">
+        <v>1</v>
+      </c>
       <c r="F853" t="s">
         <v>252</v>
       </c>
@@ -21941,6 +22048,9 @@
       <c r="B854">
         <v>852</v>
       </c>
+      <c r="E854" t="b">
+        <v>1</v>
+      </c>
       <c r="F854" t="s">
         <v>299</v>
       </c>
@@ -21955,6 +22065,9 @@
       <c r="B855">
         <v>853</v>
       </c>
+      <c r="E855" t="b">
+        <v>1</v>
+      </c>
       <c r="F855" t="s">
         <v>39</v>
       </c>
@@ -21969,6 +22082,9 @@
       <c r="B856">
         <v>854</v>
       </c>
+      <c r="E856" t="b">
+        <v>1</v>
+      </c>
       <c r="F856" t="s">
         <v>77</v>
       </c>
@@ -21983,6 +22099,9 @@
       <c r="B857">
         <v>855</v>
       </c>
+      <c r="E857" t="b">
+        <v>1</v>
+      </c>
       <c r="F857" t="s">
         <v>354</v>
       </c>
@@ -21997,6 +22116,9 @@
       <c r="B858">
         <v>856</v>
       </c>
+      <c r="C858" t="b">
+        <v>1</v>
+      </c>
       <c r="F858" t="s">
         <v>355</v>
       </c>
@@ -22014,6 +22136,9 @@
       <c r="B859">
         <v>857</v>
       </c>
+      <c r="C859" t="b">
+        <v>1</v>
+      </c>
       <c r="F859" t="s">
         <v>34</v>
       </c>
@@ -22028,6 +22153,9 @@
       <c r="B860">
         <v>858</v>
       </c>
+      <c r="D860" t="b">
+        <v>1</v>
+      </c>
       <c r="F860" t="s">
         <v>101</v>
       </c>
@@ -22042,6 +22170,9 @@
       <c r="B861">
         <v>859</v>
       </c>
+      <c r="C861" t="b">
+        <v>1</v>
+      </c>
       <c r="F861" t="s">
         <v>211</v>
       </c>
@@ -22056,6 +22187,9 @@
       <c r="B862">
         <v>860</v>
       </c>
+      <c r="C862" t="b">
+        <v>1</v>
+      </c>
       <c r="F862" t="s">
         <v>320</v>
       </c>
@@ -22070,6 +22204,9 @@
       <c r="B863">
         <v>861</v>
       </c>
+      <c r="C863" t="b">
+        <v>1</v>
+      </c>
       <c r="F863" t="s">
         <v>124</v>
       </c>
@@ -22084,6 +22221,9 @@
       <c r="B864">
         <v>862</v>
       </c>
+      <c r="C864" t="b">
+        <v>1</v>
+      </c>
       <c r="F864" t="s">
         <v>356</v>
       </c>
@@ -22101,6 +22241,9 @@
       <c r="B865">
         <v>863</v>
       </c>
+      <c r="C865" t="b">
+        <v>1</v>
+      </c>
       <c r="F865" t="s">
         <v>357</v>
       </c>
@@ -22118,6 +22261,9 @@
       <c r="B866">
         <v>864</v>
       </c>
+      <c r="E866" t="b">
+        <v>1</v>
+      </c>
       <c r="F866" t="s">
         <v>209</v>
       </c>
@@ -22132,6 +22278,9 @@
       <c r="B867">
         <v>865</v>
       </c>
+      <c r="C867" t="b">
+        <v>1</v>
+      </c>
       <c r="F867" t="s">
         <v>225</v>
       </c>
@@ -22146,6 +22295,9 @@
       <c r="B868">
         <v>866</v>
       </c>
+      <c r="C868" t="b">
+        <v>1</v>
+      </c>
       <c r="F868" t="s">
         <v>303</v>
       </c>
@@ -22160,6 +22312,9 @@
       <c r="B869">
         <v>867</v>
       </c>
+      <c r="E869" t="b">
+        <v>1</v>
+      </c>
       <c r="F869" t="s">
         <v>358</v>
       </c>
@@ -22174,6 +22329,9 @@
       <c r="B870">
         <v>868</v>
       </c>
+      <c r="E870" t="b">
+        <v>1</v>
+      </c>
       <c r="F870" t="s">
         <v>358</v>
       </c>
@@ -22188,6 +22346,9 @@
       <c r="B871">
         <v>869</v>
       </c>
+      <c r="C871" t="b">
+        <v>1</v>
+      </c>
       <c r="F871" t="s">
         <v>118</v>
       </c>
@@ -22205,6 +22366,9 @@
       <c r="B872">
         <v>870</v>
       </c>
+      <c r="E872" t="b">
+        <v>1</v>
+      </c>
       <c r="F872" t="s">
         <v>29</v>
       </c>
@@ -22219,6 +22383,9 @@
       <c r="B873">
         <v>871</v>
       </c>
+      <c r="C873" t="b">
+        <v>1</v>
+      </c>
       <c r="F873" t="s">
         <v>28</v>
       </c>
@@ -22233,6 +22400,9 @@
       <c r="B874">
         <v>872</v>
       </c>
+      <c r="C874" t="b">
+        <v>1</v>
+      </c>
       <c r="F874" t="s">
         <v>357</v>
       </c>
@@ -22250,6 +22420,9 @@
       <c r="B875">
         <v>873</v>
       </c>
+      <c r="C875" t="b">
+        <v>1</v>
+      </c>
       <c r="F875" t="s">
         <v>195</v>
       </c>
@@ -22267,6 +22440,9 @@
       <c r="B876">
         <v>874</v>
       </c>
+      <c r="D876" t="b">
+        <v>1</v>
+      </c>
       <c r="F876" t="s">
         <v>243</v>
       </c>
@@ -22281,6 +22457,9 @@
       <c r="B877">
         <v>875</v>
       </c>
+      <c r="C877" t="b">
+        <v>1</v>
+      </c>
       <c r="F877" t="s">
         <v>69</v>
       </c>
@@ -22298,6 +22477,9 @@
       <c r="B878">
         <v>876</v>
       </c>
+      <c r="C878" t="b">
+        <v>1</v>
+      </c>
       <c r="F878" t="s">
         <v>40</v>
       </c>
@@ -22312,6 +22494,9 @@
       <c r="B879">
         <v>877</v>
       </c>
+      <c r="D879" t="b">
+        <v>1</v>
+      </c>
       <c r="F879" t="s">
         <v>85</v>
       </c>
@@ -22326,6 +22511,9 @@
       <c r="B880">
         <v>878</v>
       </c>
+      <c r="D880" t="b">
+        <v>1</v>
+      </c>
       <c r="F880" t="s">
         <v>80</v>
       </c>
@@ -22340,6 +22528,9 @@
       <c r="B881">
         <v>879</v>
       </c>
+      <c r="C881" t="b">
+        <v>1</v>
+      </c>
       <c r="F881" t="s">
         <v>275</v>
       </c>
@@ -22354,6 +22545,9 @@
       <c r="B882">
         <v>880</v>
       </c>
+      <c r="C882" t="b">
+        <v>1</v>
+      </c>
       <c r="F882" t="s">
         <v>25</v>
       </c>
@@ -22368,6 +22562,9 @@
       <c r="B883">
         <v>881</v>
       </c>
+      <c r="C883" t="b">
+        <v>1</v>
+      </c>
       <c r="F883" t="s">
         <v>47</v>
       </c>
@@ -22385,6 +22582,9 @@
       <c r="B884">
         <v>882</v>
       </c>
+      <c r="C884" t="b">
+        <v>1</v>
+      </c>
       <c r="F884" t="s">
         <v>32</v>
       </c>
@@ -22399,6 +22599,9 @@
       <c r="B885">
         <v>883</v>
       </c>
+      <c r="E885" t="b">
+        <v>1</v>
+      </c>
       <c r="F885" t="s">
         <v>125</v>
       </c>
@@ -22413,6 +22616,9 @@
       <c r="B886">
         <v>884</v>
       </c>
+      <c r="C886" t="b">
+        <v>1</v>
+      </c>
       <c r="F886" t="s">
         <v>46</v>
       </c>
@@ -22427,6 +22633,9 @@
       <c r="B887">
         <v>885</v>
       </c>
+      <c r="C887" t="b">
+        <v>1</v>
+      </c>
       <c r="F887" t="s">
         <v>237</v>
       </c>
@@ -22441,6 +22650,9 @@
       <c r="B888">
         <v>886</v>
       </c>
+      <c r="E888" t="b">
+        <v>1</v>
+      </c>
       <c r="F888" t="s">
         <v>359</v>
       </c>
@@ -22455,6 +22667,9 @@
       <c r="B889">
         <v>887</v>
       </c>
+      <c r="D889" t="b">
+        <v>1</v>
+      </c>
       <c r="F889" t="s">
         <v>60</v>
       </c>
@@ -22469,6 +22684,9 @@
       <c r="B890">
         <v>888</v>
       </c>
+      <c r="D890" t="b">
+        <v>1</v>
+      </c>
       <c r="F890" t="s">
         <v>360</v>
       </c>
@@ -22483,6 +22701,9 @@
       <c r="B891">
         <v>889</v>
       </c>
+      <c r="E891" t="b">
+        <v>1</v>
+      </c>
       <c r="F891" t="s">
         <v>361</v>
       </c>
@@ -22497,6 +22718,9 @@
       <c r="B892">
         <v>890</v>
       </c>
+      <c r="C892" t="b">
+        <v>1</v>
+      </c>
       <c r="F892" t="s">
         <v>272</v>
       </c>
@@ -22514,6 +22738,9 @@
       <c r="B893">
         <v>891</v>
       </c>
+      <c r="E893" t="b">
+        <v>1</v>
+      </c>
       <c r="F893" t="s">
         <v>349</v>
       </c>
@@ -22528,6 +22755,9 @@
       <c r="B894">
         <v>892</v>
       </c>
+      <c r="E894" t="b">
+        <v>1</v>
+      </c>
       <c r="F894" t="s">
         <v>362</v>
       </c>
@@ -22542,6 +22772,9 @@
       <c r="B895">
         <v>893</v>
       </c>
+      <c r="E895" t="b">
+        <v>1</v>
+      </c>
       <c r="F895" t="s">
         <v>57</v>
       </c>
@@ -22556,6 +22789,9 @@
       <c r="B896">
         <v>894</v>
       </c>
+      <c r="C896" t="b">
+        <v>1</v>
+      </c>
       <c r="F896" t="s">
         <v>363</v>
       </c>
@@ -22570,6 +22806,9 @@
       <c r="B897">
         <v>895</v>
       </c>
+      <c r="D897" t="b">
+        <v>1</v>
+      </c>
       <c r="F897" t="s">
         <v>364</v>
       </c>
@@ -22584,6 +22823,9 @@
       <c r="B898">
         <v>896</v>
       </c>
+      <c r="D898" t="b">
+        <v>1</v>
+      </c>
       <c r="F898" t="s">
         <v>248</v>
       </c>
@@ -22598,6 +22840,9 @@
       <c r="B899">
         <v>897</v>
       </c>
+      <c r="E899" t="b">
+        <v>1</v>
+      </c>
       <c r="F899" t="s">
         <v>196</v>
       </c>
@@ -22615,6 +22860,9 @@
       <c r="B900">
         <v>898</v>
       </c>
+      <c r="C900" t="b">
+        <v>1</v>
+      </c>
       <c r="F900" t="s">
         <v>164</v>
       </c>
@@ -22632,6 +22880,9 @@
       <c r="B901">
         <v>899</v>
       </c>
+      <c r="D901" t="b">
+        <v>1</v>
+      </c>
       <c r="F901" t="s">
         <v>213</v>
       </c>
@@ -22646,6 +22897,9 @@
       <c r="B902">
         <v>900</v>
       </c>
+      <c r="C902" t="b">
+        <v>1</v>
+      </c>
       <c r="F902" t="s">
         <v>312</v>
       </c>
@@ -22663,6 +22917,9 @@
       <c r="B903">
         <v>901</v>
       </c>
+      <c r="C903" t="b">
+        <v>1</v>
+      </c>
       <c r="F903" t="s">
         <v>365</v>
       </c>
@@ -22680,6 +22937,9 @@
       <c r="B904">
         <v>902</v>
       </c>
+      <c r="D904" t="b">
+        <v>1</v>
+      </c>
       <c r="F904" t="s">
         <v>80</v>
       </c>
@@ -22694,6 +22954,9 @@
       <c r="B905">
         <v>903</v>
       </c>
+      <c r="C905" t="b">
+        <v>1</v>
+      </c>
       <c r="F905" t="s">
         <v>153</v>
       </c>
@@ -22708,6 +22971,9 @@
       <c r="B906">
         <v>904</v>
       </c>
+      <c r="E906" t="b">
+        <v>1</v>
+      </c>
       <c r="F906" t="s">
         <v>54</v>
       </c>
@@ -22722,6 +22988,9 @@
       <c r="B907">
         <v>905</v>
       </c>
+      <c r="E907" t="b">
+        <v>1</v>
+      </c>
       <c r="F907" t="s">
         <v>201</v>
       </c>
@@ -22736,6 +23005,9 @@
       <c r="B908">
         <v>906</v>
       </c>
+      <c r="C908" t="b">
+        <v>1</v>
+      </c>
       <c r="F908" t="s">
         <v>366</v>
       </c>
@@ -22753,6 +23025,9 @@
       <c r="B909">
         <v>907</v>
       </c>
+      <c r="E909" t="b">
+        <v>1</v>
+      </c>
       <c r="F909" t="s">
         <v>104</v>
       </c>
@@ -22767,6 +23042,9 @@
       <c r="B910">
         <v>908</v>
       </c>
+      <c r="E910" t="b">
+        <v>1</v>
+      </c>
       <c r="F910" t="s">
         <v>77</v>
       </c>
@@ -22781,6 +23059,9 @@
       <c r="B911">
         <v>909</v>
       </c>
+      <c r="E911" t="b">
+        <v>1</v>
+      </c>
       <c r="F911" t="s">
         <v>212</v>
       </c>
@@ -22795,6 +23076,9 @@
       <c r="B912">
         <v>910</v>
       </c>
+      <c r="C912" t="b">
+        <v>1</v>
+      </c>
       <c r="F912" t="s">
         <v>327</v>
       </c>
@@ -22812,6 +23096,9 @@
       <c r="B913">
         <v>911</v>
       </c>
+      <c r="E913" t="b">
+        <v>1</v>
+      </c>
       <c r="F913" t="s">
         <v>352</v>
       </c>
@@ -22826,6 +23113,9 @@
       <c r="B914">
         <v>912</v>
       </c>
+      <c r="E914" t="b">
+        <v>1</v>
+      </c>
       <c r="F914" t="s">
         <v>297</v>
       </c>
@@ -22840,6 +23130,9 @@
       <c r="B915">
         <v>913</v>
       </c>
+      <c r="C915" t="b">
+        <v>1</v>
+      </c>
       <c r="F915" t="s">
         <v>275</v>
       </c>
@@ -22854,6 +23147,9 @@
       <c r="B916">
         <v>914</v>
       </c>
+      <c r="E916" t="b">
+        <v>1</v>
+      </c>
       <c r="F916" t="s">
         <v>153</v>
       </c>
@@ -22868,6 +23164,9 @@
       <c r="B917">
         <v>915</v>
       </c>
+      <c r="C917" t="b">
+        <v>1</v>
+      </c>
       <c r="F917" t="s">
         <v>27</v>
       </c>
@@ -22882,6 +23181,9 @@
       <c r="B918">
         <v>916</v>
       </c>
+      <c r="E918" t="b">
+        <v>1</v>
+      </c>
       <c r="F918" t="s">
         <v>43</v>
       </c>
@@ -22899,6 +23201,9 @@
       <c r="B919">
         <v>917</v>
       </c>
+      <c r="C919" t="b">
+        <v>1</v>
+      </c>
       <c r="F919" t="s">
         <v>167</v>
       </c>
@@ -22913,6 +23218,9 @@
       <c r="B920">
         <v>918</v>
       </c>
+      <c r="C920" t="b">
+        <v>1</v>
+      </c>
       <c r="F920" t="s">
         <v>53</v>
       </c>
@@ -22930,6 +23238,9 @@
       <c r="B921">
         <v>919</v>
       </c>
+      <c r="C921" t="b">
+        <v>1</v>
+      </c>
       <c r="F921" t="s">
         <v>365</v>
       </c>
@@ -22947,6 +23258,9 @@
       <c r="B922">
         <v>920</v>
       </c>
+      <c r="E922" t="b">
+        <v>1</v>
+      </c>
       <c r="F922" t="s">
         <v>343</v>
       </c>
@@ -22961,6 +23275,9 @@
       <c r="B923">
         <v>921</v>
       </c>
+      <c r="D923" t="b">
+        <v>1</v>
+      </c>
       <c r="F923" t="s">
         <v>250</v>
       </c>
@@ -22975,6 +23292,9 @@
       <c r="B924">
         <v>922</v>
       </c>
+      <c r="C924" t="b">
+        <v>1</v>
+      </c>
       <c r="F924" t="s">
         <v>109</v>
       </c>
@@ -22992,6 +23312,9 @@
       <c r="B925">
         <v>923</v>
       </c>
+      <c r="E925" t="b">
+        <v>1</v>
+      </c>
       <c r="F925" t="s">
         <v>17</v>
       </c>
@@ -23006,6 +23329,9 @@
       <c r="B926">
         <v>924</v>
       </c>
+      <c r="C926" t="b">
+        <v>1</v>
+      </c>
       <c r="F926" t="s">
         <v>152</v>
       </c>
@@ -23023,6 +23349,9 @@
       <c r="B927">
         <v>925</v>
       </c>
+      <c r="E927" t="b">
+        <v>1</v>
+      </c>
       <c r="F927" t="s">
         <v>284</v>
       </c>
@@ -23037,6 +23366,9 @@
       <c r="B928">
         <v>926</v>
       </c>
+      <c r="E928" t="b">
+        <v>1</v>
+      </c>
       <c r="F928" t="s">
         <v>367</v>
       </c>
@@ -23051,8 +23383,11 @@
       <c r="B929">
         <v>927</v>
       </c>
+      <c r="E929" t="b">
+        <v>1</v>
+      </c>
       <c r="F929" t="s">
-        <v>87</v>
+        <v>2156</v>
       </c>
       <c r="H929" t="s">
         <v>1449</v>
@@ -23065,6 +23400,9 @@
       <c r="B930">
         <v>928</v>
       </c>
+      <c r="C930" t="b">
+        <v>1</v>
+      </c>
       <c r="F930" t="s">
         <v>121</v>
       </c>
@@ -23082,6 +23420,9 @@
       <c r="B931">
         <v>929</v>
       </c>
+      <c r="C931" t="b">
+        <v>1</v>
+      </c>
       <c r="F931" t="s">
         <v>187</v>
       </c>
@@ -23096,6 +23437,9 @@
       <c r="B932">
         <v>930</v>
       </c>
+      <c r="C932" t="b">
+        <v>1</v>
+      </c>
       <c r="F932" t="s">
         <v>42</v>
       </c>
@@ -23110,6 +23454,9 @@
       <c r="B933">
         <v>931</v>
       </c>
+      <c r="C933" t="b">
+        <v>1</v>
+      </c>
       <c r="F933" t="s">
         <v>241</v>
       </c>
@@ -23124,6 +23471,9 @@
       <c r="B934">
         <v>932</v>
       </c>
+      <c r="D934" t="b">
+        <v>1</v>
+      </c>
       <c r="F934" t="s">
         <v>102</v>
       </c>
@@ -23138,6 +23488,9 @@
       <c r="B935">
         <v>933</v>
       </c>
+      <c r="E935" t="b">
+        <v>1</v>
+      </c>
       <c r="F935" t="s">
         <v>368</v>
       </c>
@@ -23152,6 +23505,9 @@
       <c r="B936">
         <v>934</v>
       </c>
+      <c r="C936" t="b">
+        <v>1</v>
+      </c>
       <c r="F936" t="s">
         <v>43</v>
       </c>
@@ -23169,6 +23525,9 @@
       <c r="B937">
         <v>935</v>
       </c>
+      <c r="D937" t="b">
+        <v>1</v>
+      </c>
       <c r="F937" t="s">
         <v>185</v>
       </c>
@@ -23183,6 +23542,9 @@
       <c r="B938">
         <v>936</v>
       </c>
+      <c r="D938" t="b">
+        <v>1</v>
+      </c>
       <c r="F938" t="s">
         <v>369</v>
       </c>
@@ -23197,6 +23559,9 @@
       <c r="B939">
         <v>937</v>
       </c>
+      <c r="D939" t="b">
+        <v>1</v>
+      </c>
       <c r="F939" t="s">
         <v>370</v>
       </c>
@@ -23211,6 +23576,9 @@
       <c r="B940">
         <v>938</v>
       </c>
+      <c r="C940" t="b">
+        <v>1</v>
+      </c>
       <c r="F940" t="s">
         <v>371</v>
       </c>
@@ -23225,6 +23593,9 @@
       <c r="B941">
         <v>939</v>
       </c>
+      <c r="C941" t="b">
+        <v>1</v>
+      </c>
       <c r="F941" t="s">
         <v>219</v>
       </c>
@@ -23239,6 +23610,9 @@
       <c r="B942">
         <v>940</v>
       </c>
+      <c r="D942" t="b">
+        <v>1</v>
+      </c>
       <c r="F942" t="s">
         <v>237</v>
       </c>
@@ -23253,6 +23627,9 @@
       <c r="B943">
         <v>941</v>
       </c>
+      <c r="D943" t="b">
+        <v>1</v>
+      </c>
       <c r="F943" t="s">
         <v>51</v>
       </c>
@@ -23267,6 +23644,9 @@
       <c r="B944">
         <v>942</v>
       </c>
+      <c r="C944" t="b">
+        <v>1</v>
+      </c>
       <c r="F944" t="s">
         <v>328</v>
       </c>
@@ -23281,6 +23661,9 @@
       <c r="B945">
         <v>943</v>
       </c>
+      <c r="D945" t="b">
+        <v>1</v>
+      </c>
       <c r="F945" t="s">
         <v>77</v>
       </c>
@@ -23295,6 +23678,9 @@
       <c r="B946">
         <v>944</v>
       </c>
+      <c r="C946" t="b">
+        <v>1</v>
+      </c>
       <c r="F946" t="s">
         <v>26</v>
       </c>
@@ -23309,6 +23695,9 @@
       <c r="B947">
         <v>945</v>
       </c>
+      <c r="E947" t="b">
+        <v>1</v>
+      </c>
       <c r="F947" t="s">
         <v>39</v>
       </c>
@@ -23323,6 +23712,9 @@
       <c r="B948">
         <v>946</v>
       </c>
+      <c r="C948" t="b">
+        <v>1</v>
+      </c>
       <c r="F948" t="s">
         <v>73</v>
       </c>
@@ -23340,6 +23732,9 @@
       <c r="B949">
         <v>947</v>
       </c>
+      <c r="E949" t="b">
+        <v>1</v>
+      </c>
       <c r="F949" t="s">
         <v>13</v>
       </c>
@@ -23354,6 +23749,9 @@
       <c r="B950">
         <v>948</v>
       </c>
+      <c r="C950" t="b">
+        <v>1</v>
+      </c>
       <c r="F950" t="s">
         <v>117</v>
       </c>
@@ -23368,6 +23766,9 @@
       <c r="B951">
         <v>949</v>
       </c>
+      <c r="E951" t="b">
+        <v>1</v>
+      </c>
       <c r="F951" t="s">
         <v>358</v>
       </c>
@@ -23382,6 +23783,9 @@
       <c r="B952">
         <v>950</v>
       </c>
+      <c r="E952" t="b">
+        <v>1</v>
+      </c>
       <c r="F952" t="s">
         <v>144</v>
       </c>
@@ -23396,6 +23800,9 @@
       <c r="B953">
         <v>951</v>
       </c>
+      <c r="C953" t="b">
+        <v>1</v>
+      </c>
       <c r="F953" t="s">
         <v>166</v>
       </c>
@@ -23410,6 +23817,9 @@
       <c r="B954">
         <v>952</v>
       </c>
+      <c r="C954" t="b">
+        <v>1</v>
+      </c>
       <c r="F954" t="s">
         <v>78</v>
       </c>
@@ -23424,6 +23834,9 @@
       <c r="B955">
         <v>953</v>
       </c>
+      <c r="C955" t="b">
+        <v>1</v>
+      </c>
       <c r="F955" t="s">
         <v>372</v>
       </c>
@@ -23438,6 +23851,9 @@
       <c r="B956">
         <v>954</v>
       </c>
+      <c r="C956" t="b">
+        <v>1</v>
+      </c>
       <c r="F956" t="s">
         <v>295</v>
       </c>
@@ -23452,6 +23868,9 @@
       <c r="B957">
         <v>955</v>
       </c>
+      <c r="C957" t="b">
+        <v>1</v>
+      </c>
       <c r="F957" t="s">
         <v>97</v>
       </c>
@@ -23466,6 +23885,9 @@
       <c r="B958">
         <v>956</v>
       </c>
+      <c r="E958" t="b">
+        <v>1</v>
+      </c>
       <c r="F958" t="s">
         <v>125</v>
       </c>
@@ -23480,6 +23902,9 @@
       <c r="B959">
         <v>957</v>
       </c>
+      <c r="E959" t="b">
+        <v>1</v>
+      </c>
       <c r="F959" t="s">
         <v>117</v>
       </c>
@@ -23494,6 +23919,9 @@
       <c r="B960">
         <v>958</v>
       </c>
+      <c r="C960" t="b">
+        <v>1</v>
+      </c>
       <c r="F960" t="s">
         <v>46</v>
       </c>
@@ -23508,6 +23936,9 @@
       <c r="B961">
         <v>959</v>
       </c>
+      <c r="C961" t="b">
+        <v>1</v>
+      </c>
       <c r="F961" t="s">
         <v>373</v>
       </c>
@@ -23525,6 +23956,9 @@
       <c r="B962">
         <v>960</v>
       </c>
+      <c r="C962" t="b">
+        <v>1</v>
+      </c>
       <c r="F962" t="s">
         <v>64</v>
       </c>
@@ -23542,6 +23976,9 @@
       <c r="B963">
         <v>961</v>
       </c>
+      <c r="D963" t="b">
+        <v>1</v>
+      </c>
       <c r="F963" t="s">
         <v>127</v>
       </c>
@@ -23556,6 +23993,9 @@
       <c r="B964">
         <v>962</v>
       </c>
+      <c r="E964" t="b">
+        <v>1</v>
+      </c>
       <c r="F964" t="s">
         <v>227</v>
       </c>
@@ -23570,6 +24010,9 @@
       <c r="B965">
         <v>963</v>
       </c>
+      <c r="D965" t="b">
+        <v>1</v>
+      </c>
       <c r="F965" t="s">
         <v>316</v>
       </c>
@@ -23584,6 +24027,9 @@
       <c r="B966">
         <v>964</v>
       </c>
+      <c r="D966" t="b">
+        <v>1</v>
+      </c>
       <c r="F966" t="s">
         <v>269</v>
       </c>
@@ -23598,6 +24044,9 @@
       <c r="B967">
         <v>965</v>
       </c>
+      <c r="D967" t="b">
+        <v>1</v>
+      </c>
       <c r="F967" t="s">
         <v>292</v>
       </c>
@@ -23612,6 +24061,9 @@
       <c r="B968">
         <v>966</v>
       </c>
+      <c r="D968" t="b">
+        <v>1</v>
+      </c>
       <c r="F968" t="s">
         <v>34</v>
       </c>
@@ -23626,6 +24078,9 @@
       <c r="B969">
         <v>967</v>
       </c>
+      <c r="E969" t="b">
+        <v>1</v>
+      </c>
       <c r="F969" t="s">
         <v>188</v>
       </c>
@@ -23640,6 +24095,9 @@
       <c r="B970">
         <v>968</v>
       </c>
+      <c r="C970" t="b">
+        <v>1</v>
+      </c>
       <c r="F970" t="s">
         <v>348</v>
       </c>
@@ -23657,6 +24115,9 @@
       <c r="B971">
         <v>969</v>
       </c>
+      <c r="D971" t="b">
+        <v>1</v>
+      </c>
       <c r="F971" t="s">
         <v>84</v>
       </c>
@@ -23671,6 +24132,9 @@
       <c r="B972">
         <v>970</v>
       </c>
+      <c r="D972" t="b">
+        <v>1</v>
+      </c>
       <c r="F972" t="s">
         <v>237</v>
       </c>
@@ -23685,6 +24149,9 @@
       <c r="B973">
         <v>971</v>
       </c>
+      <c r="C973" t="b">
+        <v>1</v>
+      </c>
       <c r="F973" t="s">
         <v>374</v>
       </c>
@@ -23702,6 +24169,9 @@
       <c r="B974">
         <v>972</v>
       </c>
+      <c r="C974" t="b">
+        <v>1</v>
+      </c>
       <c r="F974" t="s">
         <v>287</v>
       </c>
@@ -23719,6 +24189,9 @@
       <c r="B975">
         <v>973</v>
       </c>
+      <c r="D975" t="b">
+        <v>1</v>
+      </c>
       <c r="F975" t="s">
         <v>7</v>
       </c>
@@ -23733,6 +24206,9 @@
       <c r="B976">
         <v>974</v>
       </c>
+      <c r="C976" t="b">
+        <v>1</v>
+      </c>
       <c r="F976" t="s">
         <v>361</v>
       </c>
@@ -23747,6 +24223,9 @@
       <c r="B977">
         <v>975</v>
       </c>
+      <c r="C977" t="b">
+        <v>1</v>
+      </c>
       <c r="F977" t="s">
         <v>243</v>
       </c>
@@ -23761,6 +24240,9 @@
       <c r="B978">
         <v>976</v>
       </c>
+      <c r="D978" t="b">
+        <v>1</v>
+      </c>
       <c r="F978" t="s">
         <v>81</v>
       </c>
@@ -23775,6 +24257,9 @@
       <c r="B979">
         <v>977</v>
       </c>
+      <c r="C979" t="b">
+        <v>1</v>
+      </c>
       <c r="F979" t="s">
         <v>375</v>
       </c>
@@ -23789,6 +24274,9 @@
       <c r="B980">
         <v>978</v>
       </c>
+      <c r="C980" t="b">
+        <v>1</v>
+      </c>
       <c r="F980" t="s">
         <v>138</v>
       </c>
@@ -23806,6 +24294,9 @@
       <c r="B981">
         <v>979</v>
       </c>
+      <c r="D981" t="b">
+        <v>1</v>
+      </c>
       <c r="F981" t="s">
         <v>81</v>
       </c>
@@ -23820,6 +24311,9 @@
       <c r="B982">
         <v>980</v>
       </c>
+      <c r="E982" t="b">
+        <v>1</v>
+      </c>
       <c r="F982" t="s">
         <v>281</v>
       </c>
@@ -23834,6 +24328,9 @@
       <c r="B983">
         <v>981</v>
       </c>
+      <c r="C983" t="b">
+        <v>1</v>
+      </c>
       <c r="F983" t="s">
         <v>376</v>
       </c>
@@ -23848,6 +24345,9 @@
       <c r="B984">
         <v>982</v>
       </c>
+      <c r="E984" t="b">
+        <v>1</v>
+      </c>
       <c r="F984" t="s">
         <v>283</v>
       </c>
@@ -23862,6 +24362,9 @@
       <c r="B985">
         <v>983</v>
       </c>
+      <c r="D985" t="b">
+        <v>1</v>
+      </c>
       <c r="F985" t="s">
         <v>117</v>
       </c>
@@ -23876,6 +24379,9 @@
       <c r="B986">
         <v>984</v>
       </c>
+      <c r="C986" t="b">
+        <v>1</v>
+      </c>
       <c r="F986" t="s">
         <v>50</v>
       </c>
@@ -23893,6 +24399,9 @@
       <c r="B987">
         <v>985</v>
       </c>
+      <c r="E987" t="b">
+        <v>1</v>
+      </c>
       <c r="F987" t="s">
         <v>54</v>
       </c>
@@ -23907,6 +24416,9 @@
       <c r="B988">
         <v>986</v>
       </c>
+      <c r="D988" t="b">
+        <v>1</v>
+      </c>
       <c r="F988" t="s">
         <v>377</v>
       </c>
@@ -23921,6 +24433,9 @@
       <c r="B989">
         <v>987</v>
       </c>
+      <c r="D989" t="b">
+        <v>1</v>
+      </c>
       <c r="F989" t="s">
         <v>28</v>
       </c>
@@ -23935,6 +24450,9 @@
       <c r="B990">
         <v>988</v>
       </c>
+      <c r="C990" t="b">
+        <v>1</v>
+      </c>
       <c r="F990" t="s">
         <v>28</v>
       </c>
@@ -23950,6 +24468,9 @@
       <c r="B991">
         <v>989</v>
       </c>
+      <c r="D991" t="b">
+        <v>1</v>
+      </c>
       <c r="F991" t="s">
         <v>348</v>
       </c>
@@ -23967,6 +24488,9 @@
       <c r="B992">
         <v>990</v>
       </c>
+      <c r="D992" t="b">
+        <v>1</v>
+      </c>
       <c r="F992" t="s">
         <v>111</v>
       </c>
@@ -23981,6 +24505,9 @@
       <c r="B993">
         <v>991</v>
       </c>
+      <c r="C993" t="b">
+        <v>1</v>
+      </c>
       <c r="F993" t="s">
         <v>378</v>
       </c>
@@ -23995,6 +24522,9 @@
       <c r="B994">
         <v>992</v>
       </c>
+      <c r="E994" t="b">
+        <v>1</v>
+      </c>
       <c r="F994" t="s">
         <v>85</v>
       </c>
@@ -24009,6 +24539,9 @@
       <c r="B995">
         <v>993</v>
       </c>
+      <c r="E995" t="b">
+        <v>1</v>
+      </c>
       <c r="F995" t="s">
         <v>379</v>
       </c>
@@ -24026,6 +24559,9 @@
       <c r="B996">
         <v>994</v>
       </c>
+      <c r="C996" t="b">
+        <v>1</v>
+      </c>
       <c r="F996" t="s">
         <v>148</v>
       </c>
@@ -24043,6 +24579,9 @@
       <c r="B997">
         <v>995</v>
       </c>
+      <c r="C997" t="b">
+        <v>1</v>
+      </c>
       <c r="F997" t="s">
         <v>333</v>
       </c>
@@ -24057,6 +24596,9 @@
       <c r="B998">
         <v>996</v>
       </c>
+      <c r="C998" t="b">
+        <v>1</v>
+      </c>
       <c r="F998" t="s">
         <v>208</v>
       </c>
@@ -24071,6 +24613,9 @@
       <c r="B999">
         <v>997</v>
       </c>
+      <c r="E999" t="b">
+        <v>1</v>
+      </c>
       <c r="F999" t="s">
         <v>340</v>
       </c>
@@ -24085,6 +24630,9 @@
       <c r="B1000">
         <v>998</v>
       </c>
+      <c r="D1000" t="b">
+        <v>1</v>
+      </c>
       <c r="F1000" t="s">
         <v>86</v>
       </c>
@@ -24099,6 +24647,9 @@
       <c r="B1001">
         <v>999</v>
       </c>
+      <c r="D1001" t="b">
+        <v>1</v>
+      </c>
       <c r="F1001" t="s">
         <v>324</v>
       </c>
@@ -24113,6 +24664,9 @@
       <c r="B1002">
         <v>1000</v>
       </c>
+      <c r="E1002" t="b">
+        <v>1</v>
+      </c>
       <c r="F1002" t="s">
         <v>358</v>
       </c>
@@ -24127,6 +24681,9 @@
       <c r="B1003">
         <v>1001</v>
       </c>
+      <c r="D1003" t="b">
+        <v>1</v>
+      </c>
       <c r="F1003" t="s">
         <v>70</v>
       </c>
@@ -24640,6 +25197,9 @@
       </c>
       <c r="B1038">
         <v>1036</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>2155</v>
       </c>
       <c r="F1038" t="s">
         <v>320</v>
